--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
@@ -1787,16 +1787,76 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>44838.99697754191</v>
-      </c>
-      <c r="B96" t="inlineStr">
+        <v>44838.9969775463</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>4.7</t>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>44839.02611079861</v>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Sistem Kapalı</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>44839.0261312037</v>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>44839.02615079861</v>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>44839.02616507</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sistem Kapalı</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
@@ -1847,16 +1847,31 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>44839.02616507</v>
-      </c>
-      <c r="B100" t="inlineStr">
+        <v>44839.02616506944</v>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>Sistem Kapalı</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>44839.03433370872</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4.6</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -111,7 +111,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -132,16 +132,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.79"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -154,6 +158,24 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -16,14 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -70,24 +68,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,141 +442,171 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col width="45.37" customWidth="1" style="3" min="1" max="1"/>
-    <col width="59.12" customWidth="1" style="3" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>restorant</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>datetime</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>open/close</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>current_rating</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>https://getir.com/yemek/restoran/konoha-bagdat-cad-kadikoy-istanbul/</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>44839.48123134259</v>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>44839.80821994213</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>44839.80822732639</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44839.80823481482</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>NO RATING</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>44839.80823822917</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>https://getir.com/yemek/restoran/cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul/</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>44839.48126090278</v>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44839.8082561836</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44839.80826113215</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" s="4">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" s="4">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" s="4">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" s="4">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" s="4">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://getir.com/yemek/restoran/konoha-bagdat-cad-kadikoy-istanbul/</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>44839.48705360228</v>
-      </c>
-      <c r="C10" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44839.80826431906</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NO RATING</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44839.80826783027</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>AÇIK</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>4.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://getir.com/yemek/restoran/cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul/</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>44839.48706891223</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.4</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -531,80 +531,240 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="0" t="inlineStr">
         <is>
           <t>konoha-bagdat-cad-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44839.8082561836</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>44839.80825618056</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44839.80826113215</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>44839.80826113426</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>giresun-konagi-restoran-bagcilar-istanbul</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44839.80826431906</v>
-      </c>
-      <c r="C7" t="inlineStr">
+        <v>44839.80826431713</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>NO RATING</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="0" t="inlineStr">
         <is>
           <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44839.80826783027</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>44839.80826783565</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44839.83417875</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44839.83418702547</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44839.83419753472</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>NO RATING</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44839.83420465278</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44839.8342205937</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44839.83422474632</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44839.8342283618</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NO RATING</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44839.83423231573</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>44839.80821994213</v>
+        <v>44841.50505825232</v>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
@@ -466,58 +466,58 @@
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44839.80822732639</v>
+        <v>44841.50512471065</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+          <t>restoran</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44839.80823481482</v>
+        <v>44841.50520675926</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>KAPALI</t>
+          <t>AÇIK</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>NO RATING</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+          <t>restoran</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44839.80823822917</v>
+        <v>44841.50527828703</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
@@ -533,11 +533,11 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44839.80825618056</v>
+        <v>44841.50718738426</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
@@ -546,78 +546,78 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44839.80826113426</v>
+        <v>44841.50726765046</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44839.80826431713</v>
+        <v>44841.51303667824</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>KAPALI</t>
+          <t>AÇIK</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>NO RATING</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44839.80826783565</v>
+        <v>44841.51311502315</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
+          <t>restoran</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44839.83417875</v>
+        <v>44841.51319752315</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
@@ -626,18 +626,18 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
+          <t>restoran</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44839.83418702547</v>
+        <v>44841.51327284722</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
@@ -646,127 +646,287 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
+          <t>cosa-bi-corba-bi-salata-acibadem-mah-kadikoy-istanbul</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44839.83419753472</v>
+        <v>44841.51334820602</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>KAPALI</t>
+          <t>AÇIK</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>NO RATING</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
+          <t>restoran</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44839.83420465278</v>
+        <v>44841.51343730324</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>restoran</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44841.51351729166</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>doyuyo-sarayardi-cad-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44841.51360233796</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>el-pollo-lasso-acibadem-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44841.51368598379</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44841.51379228009</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44841.51386959491</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44841.51410226852</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44841.51416706019</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>restoran</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44841.51423962963</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>restoran</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44841.51431548611</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>konoha-bagdat-cad-kadikoy-istanbul</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>44839.8342205937</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>cosa-bi-corba-bi-salata-kozyatagi-mah-kadikoy-istanbul</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44839.83422474632</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44841.51753185411</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>giresun-konagi-restoran-bagcilar-istanbul</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44839.8342283618</v>
-      </c>
-      <c r="C15" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44841.51761353836</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>KAPALI</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>NO RATING</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>gurme-lahmacun-pide-sahrayicedit-mah-kadikoy-istanbul</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44839.83423231573</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.6</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44841.51770283478</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.3</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -453,11 +453,11 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Alle Bowls</t>
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>44841.50505825232</v>
+        <v>44842.60884034722</v>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
@@ -473,11 +473,11 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Arianas Cheesecake</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44841.50512471065</v>
+        <v>44842.60890881944</v>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
@@ -493,11 +493,11 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem Big Bold Quick</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44841.50520675926</v>
+        <v>44842.60898018518</v>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
@@ -513,11 +513,11 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem Caesar Salad By</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44841.50527828703</v>
+        <v>44842.60905603009</v>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
@@ -533,11 +533,11 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Çosa</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44841.50718738426</v>
+        <v>44842.60912979166</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
@@ -546,18 +546,18 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44841.50726765046</v>
+        <v>44842.60920409722</v>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
@@ -566,38 +566,38 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Dlycious Dyssert</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44841.51303667824</v>
+        <v>44842.60927396991</v>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Doyuyo</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44841.51311502315</v>
+        <v>44842.60934369213</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
@@ -606,18 +606,18 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem El Pollo Lasso</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44841.51319752315</v>
+        <v>44842.60941880787</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
@@ -633,71 +633,71 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem Etişler Köfte</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44841.51327284722</v>
+        <v>44842.60948739584</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cosa-bi-corba-bi-salata-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Fadelini</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44841.51334820602</v>
+        <v>44842.60955535879</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem Fun For Fit</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44841.51343730324</v>
+        <v>44842.60962621528</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>KAPALI</t>
+          <t>AÇIK</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem G&amp;G Burger</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44841.51351729166</v>
+        <v>44842.6096934838</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
@@ -706,38 +706,38 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>doyuyo-sarayardi-cad-kadikoy-istanbul</t>
+          <t>Acıbadem Gurra Tavuk</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44841.51360233796</v>
+        <v>44842.60976569445</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>KAPALI</t>
+          <t>AÇIK</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>el-pollo-lasso-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Jay Jay Fries</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44841.51368598379</v>
+        <v>44842.60983483796</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
@@ -753,31 +753,31 @@
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Kale Arkası Mutfak</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44841.51379228009</v>
+        <v>44842.60990460648</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44841.51386959491</v>
+        <v>44842.60997679398</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
@@ -786,22 +786,22 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>alle-bowls-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Madritas</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44841.51410226852</v>
+        <v>44842.6100456713</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>AÇIK</t>
+          <t>KAPALI</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -813,31 +813,31 @@
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>ariana-s-cheesecake-acibadem-mah-kadikoy-istanbul</t>
+          <t>Acıbadem Mztps Meze</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44841.51416706019</v>
+        <v>44842.61012511574</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>KAPALI</t>
+          <t>AÇIK</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem Nane Mantı</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44841.51423962963</v>
+        <v>44842.61019520833</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
@@ -853,11 +853,11 @@
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>restoran</t>
+          <t>Acıbadem Noody</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44841.51431548611</v>
+        <v>44842.61026387732</v>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
@@ -866,65 +866,2445 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44842.6103368287</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44842.61040721065</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44842.61048076389</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44842.61055298611</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44842.61062540509</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44842.61069405093</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44842.61077359954</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>44842.65051519676</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>44842.65058180555</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>44842.65065048611</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>44842.65072541666</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Alle Bowls</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44841.51753185411</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>44842.65079634259</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>44842.65086520834</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Arianas Cheesecake</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44841.51761353836</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>44842.65093207176</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>44842.65099734953</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>44842.65107980324</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>44842.65114844908</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>44842.65121454861</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Big Bold Quick</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44841.51770283478</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>44842.65128285879</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>44842.65135237268</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>44842.65142021991</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>44842.65149005787</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>44842.65155978009</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>44842.65163442129</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>44842.65170797454</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>44842.66728092593</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>44842.66734634259</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>44842.66741649306</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>44842.66785148148</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>44842.66826600694</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44842.66832887731</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>44842.66839309028</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>44842.66846045139</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44842.66852590278</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>44842.66859320602</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>44842.66866532408</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>44842.66872982639</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>44842.66880104167</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>44842.6688697338</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44842.66893556713</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>44842.66900297454</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44842.66907405093</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>44842.6691434838</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>44842.669215625</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>44842.66929427083</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>44842.66936046296</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>44842.66943820602</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>44842.66950581018</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>44842.6695746875</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>44842.66965190972</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>44842.6697190162</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>44842.66978652777</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>44842.66985635416</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>44842.66992658565</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>44842.66999381944</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>44842.6700641088</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>44842.67013140046</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>44842.67019357639</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>44842.67025497685</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>44842.67032112268</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>44842.67038859954</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>44842.67045092593</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>44842.67051666667</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>44842.67058293981</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>44842.6706446875</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>44842.67070895834</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>44842.67077201389</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>44842.67083731481</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>44842.67090324074</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>44842.67096769676</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>44842.67103236111</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>44842.67109883102</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>44842.67116386574</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>44842.67123114583</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>44842.67129658565</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>44842.67136292824</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>44842.67142774306</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>44842.67149109954</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>44842.67155800926</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>44842.67162149306</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>44842.67168788194</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>44842.67175228009</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>44842.67182972223</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>44842.67189321759</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>44842.67195934028</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>44842.67272217593</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>44842.67278835648</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>44842.6728575463</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>44842.67292740741</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>44842.67299644676</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>44842.67306543981</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>44842.67313267361</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>44842.67319974537</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>44842.67326820602</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>44842.67333695602</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>44842.67340368056</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>44842.67348083333</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>44842.6735621875</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>44842.67362964121</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>44842.67369914352</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>44842.67376886574</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>44842.67384194444</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>44842.67390983796</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>44842.67398822917</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>44842.67405951389</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>44842.67413057871</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>44842.67420163195</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>44842.67427560185</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>44842.67436378472</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>44842.67443206019</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>44842.67450221065</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>44842.67457109954</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>44842.67463949074</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>44842.67539811215</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>44842.6754601717</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>44842.67552730721</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>44842.67559406744</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>44842.67565832845</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>44842.67572259932</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>44842.67578716309</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>44842.67585126779</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>44842.67591659352</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:D348"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3131,182 +3131,4282 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Alle Bowls</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44842.67539811215</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
+        <v>44842.67539811342</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Arianas Cheesecake</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44842.6754601717</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
+        <v>44842.67546017361</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Big Bold Quick</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44842.67552730721</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
+        <v>44842.67552730324</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Caesar Salad By</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44842.67559406744</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
+        <v>44842.6755940625</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Çosa</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44842.67565832845</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
+        <v>44842.67565833333</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Detroit Bad Boys Pizza</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44842.67572259932</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
+        <v>44842.67572260417</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Dlycious Dyssert</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44842.67578716309</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
+        <v>44842.67578716435</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Doyuyo</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44842.67585126779</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
+        <v>44842.67585127315</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="0" t="inlineStr">
         <is>
           <t>Acıbadem El Pollo Lasso</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44842.67591659352</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>4.3</t>
+        <v>44842.67591659723</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>44842.69802137731</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>44842.69894111111</v>
+      </c>
+      <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>44842.69900719907</v>
+      </c>
+      <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>44842.70230822916</v>
+      </c>
+      <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>44842.70231387731</v>
+      </c>
+      <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>44842.70232472222</v>
+      </c>
+      <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>44842.70233953703</v>
+      </c>
+      <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>44842.70234900463</v>
+      </c>
+      <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>44842.70235739584</v>
+      </c>
+      <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>44842.70237471065</v>
+      </c>
+      <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>44842.70238310185</v>
+      </c>
+      <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>44842.70239150463</v>
+      </c>
+      <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>44842.70239780092</v>
+      </c>
+      <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D156" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>44842.70240420139</v>
+      </c>
+      <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>44842.70241284723</v>
+      </c>
+      <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>44842.70276934028</v>
+      </c>
+      <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>44842.70277967593</v>
+      </c>
+      <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D160" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>44842.70278782408</v>
+      </c>
+      <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>44842.7027934375</v>
+      </c>
+      <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>44842.70279710648</v>
+      </c>
+      <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>44842.70280196759</v>
+      </c>
+      <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>44842.70280672453</v>
+      </c>
+      <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>44842.70281055556</v>
+      </c>
+      <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>44842.70281512731</v>
+      </c>
+      <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>44842.70281828703</v>
+      </c>
+      <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>44842.70282194445</v>
+      </c>
+      <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>44842.7028262963</v>
+      </c>
+      <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>44842.70283540509</v>
+      </c>
+      <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>44842.70284577546</v>
+      </c>
+      <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>44842.70363207176</v>
+      </c>
+      <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>44842.70369582176</v>
+      </c>
+      <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>44842.70376201389</v>
+      </c>
+      <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>44842.70382697917</v>
+      </c>
+      <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>44842.70389013889</v>
+      </c>
+      <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>44842.70395666666</v>
+      </c>
+      <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>44842.70402299768</v>
+      </c>
+      <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>44842.70408706018</v>
+      </c>
+      <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>44842.70415244213</v>
+      </c>
+      <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>44842.70421623842</v>
+      </c>
+      <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>44842.70427958333</v>
+      </c>
+      <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>44842.70434510417</v>
+      </c>
+      <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>44842.93843763889</v>
+      </c>
+      <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>44842.9385053125</v>
+      </c>
+      <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>44842.93858106482</v>
+      </c>
+      <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>44842.93864837963</v>
+      </c>
+      <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>44842.93872195602</v>
+      </c>
+      <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>44842.93879012731</v>
+      </c>
+      <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>44842.93885982639</v>
+      </c>
+      <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>44842.93892655092</v>
+      </c>
+      <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>44842.93899702546</v>
+      </c>
+      <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>44842.93906509259</v>
+      </c>
+      <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>44842.93913318287</v>
+      </c>
+      <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B196" s="1" t="n">
+        <v>44842.93920039352</v>
+      </c>
+      <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="n">
+        <v>44842.93927269676</v>
+      </c>
+      <c r="C197" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D197" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>44842.93934216435</v>
+      </c>
+      <c r="C198" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D198" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B199" s="1" t="n">
+        <v>44842.93940936343</v>
+      </c>
+      <c r="C199" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D199" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>44842.93947938657</v>
+      </c>
+      <c r="C200" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D200" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="n">
+        <v>44842.93955341436</v>
+      </c>
+      <c r="C201" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D201" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B202" s="1" t="n">
+        <v>44842.9396244676</v>
+      </c>
+      <c r="C202" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D202" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B203" s="1" t="n">
+        <v>44842.93969199074</v>
+      </c>
+      <c r="C203" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D203" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="n">
+        <v>44842.93977105324</v>
+      </c>
+      <c r="C204" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D204" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B205" s="1" t="n">
+        <v>44842.93983840278</v>
+      </c>
+      <c r="C205" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D205" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="n">
+        <v>44842.93991516204</v>
+      </c>
+      <c r="C206" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D206" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B207" s="1" t="n">
+        <v>44842.93998393518</v>
+      </c>
+      <c r="C207" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D207" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B208" s="1" t="n">
+        <v>44842.94005098379</v>
+      </c>
+      <c r="C208" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D208" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B209" s="1" t="n">
+        <v>44842.94011915509</v>
+      </c>
+      <c r="C209" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D209" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B210" s="1" t="n">
+        <v>44842.94018730324</v>
+      </c>
+      <c r="C210" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D210" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B211" s="1" t="n">
+        <v>44842.94025644676</v>
+      </c>
+      <c r="C211" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D211" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B212" s="1" t="n">
+        <v>44842.94033440972</v>
+      </c>
+      <c r="C212" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D212" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B213" s="1" t="n">
+        <v>44842.94039662037</v>
+      </c>
+      <c r="C213" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D213" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B214" s="1" t="n">
+        <v>44842.94045934028</v>
+      </c>
+      <c r="C214" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D214" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B215" s="1" t="n">
+        <v>44842.94052530092</v>
+      </c>
+      <c r="C215" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D215" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B216" s="1" t="n">
+        <v>44842.94059255787</v>
+      </c>
+      <c r="C216" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D216" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B217" s="1" t="n">
+        <v>44842.9406572338</v>
+      </c>
+      <c r="C217" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D217" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B218" s="1" t="n">
+        <v>44842.94072115741</v>
+      </c>
+      <c r="C218" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D218" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B219" s="1" t="n">
+        <v>44842.94078594907</v>
+      </c>
+      <c r="C219" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D219" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B220" s="1" t="n">
+        <v>44842.94085005787</v>
+      </c>
+      <c r="C220" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D220" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B221" s="1" t="n">
+        <v>44842.94091167824</v>
+      </c>
+      <c r="C221" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D221" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B222" s="1" t="n">
+        <v>44842.94097489584</v>
+      </c>
+      <c r="C222" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D222" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B223" s="1" t="n">
+        <v>44842.9410396875</v>
+      </c>
+      <c r="C223" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D223" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B224" s="1" t="n">
+        <v>44842.94110626158</v>
+      </c>
+      <c r="C224" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D224" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B225" s="1" t="n">
+        <v>44842.94117300926</v>
+      </c>
+      <c r="C225" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D225" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B226" s="1" t="n">
+        <v>44842.9412368287</v>
+      </c>
+      <c r="C226" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D226" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B227" s="1" t="n">
+        <v>44842.94130039352</v>
+      </c>
+      <c r="C227" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D227" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B228" s="1" t="n">
+        <v>44842.94136408565</v>
+      </c>
+      <c r="C228" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D228" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B229" s="1" t="n">
+        <v>44842.94143079861</v>
+      </c>
+      <c r="C229" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D229" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B230" s="1" t="n">
+        <v>44842.94149707176</v>
+      </c>
+      <c r="C230" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D230" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B231" s="1" t="n">
+        <v>44842.94156245371</v>
+      </c>
+      <c r="C231" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D231" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B232" s="1" t="n">
+        <v>44842.9416278588</v>
+      </c>
+      <c r="C232" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D232" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B233" s="1" t="n">
+        <v>44842.94170586806</v>
+      </c>
+      <c r="C233" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D233" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B234" s="1" t="n">
+        <v>44842.94177359954</v>
+      </c>
+      <c r="C234" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D234" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>44842.94183590278</v>
+      </c>
+      <c r="C235" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D235" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>44842.9419031713</v>
+      </c>
+      <c r="C236" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D236" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>44842.94196638889</v>
+      </c>
+      <c r="C237" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D237" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>44842.94202971065</v>
+      </c>
+      <c r="C238" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D238" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>44842.94209304398</v>
+      </c>
+      <c r="C239" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D239" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>44842.9421584838</v>
+      </c>
+      <c r="C240" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D240" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>44842.94292430556</v>
+      </c>
+      <c r="C241" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D241" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>44842.94298888889</v>
+      </c>
+      <c r="C242" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D242" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B243" s="1" t="n">
+        <v>44842.94306059027</v>
+      </c>
+      <c r="C243" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D243" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B244" s="1" t="n">
+        <v>44842.94313041666</v>
+      </c>
+      <c r="C244" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D244" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B245" s="1" t="n">
+        <v>44842.94319664351</v>
+      </c>
+      <c r="C245" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D245" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B246" s="1" t="n">
+        <v>44842.94327004629</v>
+      </c>
+      <c r="C246" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D246" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>44842.94333951389</v>
+      </c>
+      <c r="C247" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D247" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>44842.94340644676</v>
+      </c>
+      <c r="C248" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D248" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>44842.94347303241</v>
+      </c>
+      <c r="C249" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D249" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>44842.94353913194</v>
+      </c>
+      <c r="C250" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D250" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>44842.94360918982</v>
+      </c>
+      <c r="C251" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D251" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>44842.94367795139</v>
+      </c>
+      <c r="C252" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D252" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>44842.94374427084</v>
+      </c>
+      <c r="C253" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D253" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>44842.9438144676</v>
+      </c>
+      <c r="C254" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D254" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>44842.94388538194</v>
+      </c>
+      <c r="C255" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D255" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>44842.94395391204</v>
+      </c>
+      <c r="C256" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D256" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>44842.94402701389</v>
+      </c>
+      <c r="C257" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D257" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>44842.94409481481</v>
+      </c>
+      <c r="C258" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D258" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>44842.94416144676</v>
+      </c>
+      <c r="C259" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D259" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>44842.94423541667</v>
+      </c>
+      <c r="C260" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D260" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>44842.94430194444</v>
+      </c>
+      <c r="C261" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D261" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>44842.94437196759</v>
+      </c>
+      <c r="C262" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D262" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>44842.94444010417</v>
+      </c>
+      <c r="C263" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D263" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>44842.94451122685</v>
+      </c>
+      <c r="C264" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D264" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>44842.94457853009</v>
+      </c>
+      <c r="C265" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D265" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>44842.94465459491</v>
+      </c>
+      <c r="C266" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D266" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>44842.94541258102</v>
+      </c>
+      <c r="C267" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D267" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>44842.94547634259</v>
+      </c>
+      <c r="C268" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D268" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>44842.94554467592</v>
+      </c>
+      <c r="C269" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D269" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>44842.94561105324</v>
+      </c>
+      <c r="C270" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D270" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>44842.94568402778</v>
+      </c>
+      <c r="C271" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D271" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>44842.94574831019</v>
+      </c>
+      <c r="C272" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D272" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>44842.94581363426</v>
+      </c>
+      <c r="C273" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D273" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B274" s="1" t="n">
+        <v>44842.94587814815</v>
+      </c>
+      <c r="C274" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D274" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B275" s="1" t="n">
+        <v>44842.94594243055</v>
+      </c>
+      <c r="C275" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D275" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B276" s="1" t="n">
+        <v>44842.94600798611</v>
+      </c>
+      <c r="C276" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D276" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>44842.94607553241</v>
+      </c>
+      <c r="C277" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D277" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>44842.94614060185</v>
+      </c>
+      <c r="C278" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D278" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>44842.94620685186</v>
+      </c>
+      <c r="C279" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D279" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>44842.94627224537</v>
+      </c>
+      <c r="C280" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D280" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>44842.94633872686</v>
+      </c>
+      <c r="C281" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D281" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>44842.94640354167</v>
+      </c>
+      <c r="C282" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D282" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>44842.94647329861</v>
+      </c>
+      <c r="C283" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D283" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>44842.94653722223</v>
+      </c>
+      <c r="C284" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D284" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>44842.94660126157</v>
+      </c>
+      <c r="C285" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D285" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>44842.94666298611</v>
+      </c>
+      <c r="C286" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D286" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>44842.94672623843</v>
+      </c>
+      <c r="C287" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D287" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>44842.94678805555</v>
+      </c>
+      <c r="C288" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D288" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>44842.94685444445</v>
+      </c>
+      <c r="C289" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D289" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>44842.94692069444</v>
+      </c>
+      <c r="C290" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D290" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>44842.94699842593</v>
+      </c>
+      <c r="C291" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D291" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>44842.94706268518</v>
+      </c>
+      <c r="C292" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D292" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>44842.94712675926</v>
+      </c>
+      <c r="C293" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D293" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>44842.94788677083</v>
+      </c>
+      <c r="C294" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D294" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>44842.94795148148</v>
+      </c>
+      <c r="C295" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D295" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>44842.94802045139</v>
+      </c>
+      <c r="C296" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D296" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>44842.94808746528</v>
+      </c>
+      <c r="C297" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D297" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>44842.94815839121</v>
+      </c>
+      <c r="C298" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D298" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>44842.94822528935</v>
+      </c>
+      <c r="C299" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D299" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>44842.94829347223</v>
+      </c>
+      <c r="C300" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D300" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>44842.94836040509</v>
+      </c>
+      <c r="C301" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D301" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>44842.94843175926</v>
+      </c>
+      <c r="C302" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D302" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>44842.94850021991</v>
+      </c>
+      <c r="C303" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D303" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>44842.94856702547</v>
+      </c>
+      <c r="C304" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D304" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>44842.94863671296</v>
+      </c>
+      <c r="C305" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D305" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>44842.94870444445</v>
+      </c>
+      <c r="C306" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D306" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>44842.94878030093</v>
+      </c>
+      <c r="C307" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D307" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>44842.9488503125</v>
+      </c>
+      <c r="C308" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D308" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>44842.94892125</v>
+      </c>
+      <c r="C309" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D309" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>44842.94899216435</v>
+      </c>
+      <c r="C310" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D310" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>44842.94906016203</v>
+      </c>
+      <c r="C311" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D311" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>44842.94913037037</v>
+      </c>
+      <c r="C312" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D312" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>44842.94919773148</v>
+      </c>
+      <c r="C313" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D313" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>44842.94926625</v>
+      </c>
+      <c r="C314" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D314" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>44842.94933854166</v>
+      </c>
+      <c r="C315" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D315" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>44842.94941086805</v>
+      </c>
+      <c r="C316" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D316" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>44842.94948072916</v>
+      </c>
+      <c r="C317" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D317" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>44842.94955173611</v>
+      </c>
+      <c r="C318" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D318" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>44842.94962491898</v>
+      </c>
+      <c r="C319" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D319" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>44842.94969206019</v>
+      </c>
+      <c r="C320" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D320" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>44842.95045249419</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>44842.9505148907</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>44842.95058164612</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>44842.95064890534</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>44842.95071457211</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>44842.95078130921</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>44842.95084647032</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>44842.95090995288</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>44842.95097408746</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>44842.95103790575</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>44842.95110190842</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>44842.95116997101</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>44842.9512346503</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>44842.95130215009</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>44842.95136894978</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>44842.95143282538</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>44842.95150370073</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>44842.95157734826</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>44842.95164497395</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>44842.95171014385</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>44842.95177412569</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>44842.95184411457</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>44842.95190805344</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>44842.95197318383</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>44842.95203960163</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>44842.95210604519</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>44842.95217224175</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>44842.95223873753</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>4.4</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D348"/>
+  <dimension ref="A1:D350"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6851,562 +6851,602 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
+      <c r="A321" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Alle Bowls</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44842.95045249419</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
+        <v>44842.95045248843</v>
+      </c>
+      <c r="C321" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D321" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
+      <c r="A322" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Arianas Cheesecake</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44842.9505148907</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
+        <v>44842.95051489583</v>
+      </c>
+      <c r="C322" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D322" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
+      <c r="A323" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Big Bold Quick</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44842.95058164612</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
+        <v>44842.95058164352</v>
+      </c>
+      <c r="C323" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D323" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
+      <c r="A324" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Caesar Salad By</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44842.95064890534</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
+        <v>44842.95064890046</v>
+      </c>
+      <c r="C324" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D324" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
+      <c r="A325" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Çosa</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44842.95071457211</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
+        <v>44842.95071457176</v>
+      </c>
+      <c r="C325" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D325" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
+      <c r="A326" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Detroit Bad Boys Pizza</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44842.95078130921</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
+        <v>44842.95078130787</v>
+      </c>
+      <c r="C326" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D326" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
+      <c r="A327" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Dlycious Dyssert</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44842.95084647032</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
+        <v>44842.95084646991</v>
+      </c>
+      <c r="C327" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D327" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
+      <c r="A328" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Doyuyo</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44842.95090995288</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
+        <v>44842.9509099537</v>
+      </c>
+      <c r="C328" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D328" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
+      <c r="A329" s="0" t="inlineStr">
         <is>
           <t>Acıbadem El Pollo Lasso</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44842.95097408746</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
+        <v>44842.95097408564</v>
+      </c>
+      <c r="C329" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D329" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
+      <c r="A330" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Etişler Köfte</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>44842.95103790575</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
+        <v>44842.95103790509</v>
+      </c>
+      <c r="C330" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D330" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
+      <c r="A331" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Fadelini</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44842.95110190842</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
+        <v>44842.95110190972</v>
+      </c>
+      <c r="C331" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D331" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
+      <c r="A332" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Fun For Fit</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>44842.95116997101</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
+        <v>44842.95116996528</v>
+      </c>
+      <c r="C332" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D332" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
+      <c r="A333" s="0" t="inlineStr">
         <is>
           <t>Acıbadem G&amp;G Burger</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>44842.9512346503</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
+        <v>44842.95123465278</v>
+      </c>
+      <c r="C333" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D333" s="0" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
+      <c r="A334" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Gurra Tavuk</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>44842.95130215009</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
+        <v>44842.95130215277</v>
+      </c>
+      <c r="C334" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D334" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
+      <c r="A335" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Jay Jay Fries</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44842.95136894978</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
+        <v>44842.95136894676</v>
+      </c>
+      <c r="C335" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D335" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
+      <c r="A336" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Kale Arkası Mutfak</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>44842.95143282538</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
+        <v>44842.95143282408</v>
+      </c>
+      <c r="C336" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D336" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
+      <c r="A337" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Kengeres Çiğ Köfte</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>44842.95150370073</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
+        <v>44842.95150370371</v>
+      </c>
+      <c r="C337" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D337" s="0" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
+      <c r="A338" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Madritas</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44842.95157734826</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
+        <v>44842.95157734954</v>
+      </c>
+      <c r="C338" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D338" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
+      <c r="A339" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Mztps Meze</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>44842.95164497395</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
+        <v>44842.95164497685</v>
+      </c>
+      <c r="C339" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D339" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
+      <c r="A340" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Nane Mantı</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>44842.95171014385</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
+        <v>44842.95171013889</v>
+      </c>
+      <c r="C340" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D340" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
+      <c r="A341" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Noody</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>44842.95177412569</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
+        <v>44842.95177412037</v>
+      </c>
+      <c r="C341" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D341" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
+      <c r="A342" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Red Haag</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>44842.95184411457</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
+        <v>44842.95184410879</v>
+      </c>
+      <c r="C342" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D342" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
+      <c r="A343" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Rylee's Ranch Salad</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>44842.95190805344</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
+        <v>44842.95190805555</v>
+      </c>
+      <c r="C343" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D343" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
+      <c r="A344" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Seez Beez</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>44842.95197318383</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
+        <v>44842.95197318287</v>
+      </c>
+      <c r="C344" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D344" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
+      <c r="A345" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Senor Torreon</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>44842.95203960163</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
+        <v>44842.95203960648</v>
+      </c>
+      <c r="C345" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D345" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
+      <c r="A346" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Tabur Köfte</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>44842.95210604519</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
+        <v>44842.95210604167</v>
+      </c>
+      <c r="C346" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D346" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
+      <c r="A347" s="0" t="inlineStr">
         <is>
           <t>Acıbadem The Bowl</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>44842.95217224175</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
+        <v>44842.95217224537</v>
+      </c>
+      <c r="C347" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D347" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
+      <c r="A348" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Veganista</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>44842.95223873753</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
+        <v>44842.95223873843</v>
+      </c>
+      <c r="C348" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D348" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>44843.03623266301</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>44843.03629944244</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>4.2</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D350"/>
+  <dimension ref="A1:D512"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -7411,42 +7411,3282 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
+      <c r="A349" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Alle Bowls</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44843.03623266301</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
+        <v>44843.03623266204</v>
+      </c>
+      <c r="C349" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D349" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
+      <c r="A350" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Arianas Cheesecake</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>44843.03629944244</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
+        <v>44843.03629944444</v>
+      </c>
+      <c r="C350" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D350" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>44843.03831399306</v>
+      </c>
+      <c r="C351" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D351" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>44843.03837776621</v>
+      </c>
+      <c r="C352" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D352" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>44843.0384467824</v>
+      </c>
+      <c r="C353" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D353" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>44843.03852373843</v>
+      </c>
+      <c r="C354" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D354" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>44843.0385958449</v>
+      </c>
+      <c r="C355" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D355" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>44843.03866386574</v>
+      </c>
+      <c r="C356" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D356" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>44843.03873115741</v>
+      </c>
+      <c r="C357" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D357" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>44843.0388</v>
+      </c>
+      <c r="C358" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D358" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>44843.03886686343</v>
+      </c>
+      <c r="C359" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D359" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>44843.0389340162</v>
+      </c>
+      <c r="C360" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D360" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fadelini</t>
+        </is>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>44843.03899912037</v>
+      </c>
+      <c r="C361" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D361" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>44843.03907046296</v>
+      </c>
+      <c r="C362" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D362" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>44843.03914486111</v>
+      </c>
+      <c r="C363" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D363" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B364" s="1" t="n">
+        <v>44843.03921504629</v>
+      </c>
+      <c r="C364" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D364" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B365" s="1" t="n">
+        <v>44843.03928465278</v>
+      </c>
+      <c r="C365" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D365" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>44843.03935349537</v>
+      </c>
+      <c r="C366" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D366" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>44843.03942228009</v>
+      </c>
+      <c r="C367" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D367" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Madritas</t>
+        </is>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>44843.03948981482</v>
+      </c>
+      <c r="C368" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D368" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B369" s="1" t="n">
+        <v>44843.03956107639</v>
+      </c>
+      <c r="C369" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D369" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>44843.03963002315</v>
+      </c>
+      <c r="C370" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D370" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Noody</t>
+        </is>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>44843.03969864584</v>
+      </c>
+      <c r="C371" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D371" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Red Haag</t>
+        </is>
+      </c>
+      <c r="B372" s="1" t="n">
+        <v>44843.03976865741</v>
+      </c>
+      <c r="C372" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D372" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B373" s="1" t="n">
+        <v>44843.03983612268</v>
+      </c>
+      <c r="C373" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D373" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Seez Beez</t>
+        </is>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>44843.03990484954</v>
+      </c>
+      <c r="C374" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D374" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>44843.03997587963</v>
+      </c>
+      <c r="C375" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D375" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>44843.04004670139</v>
+      </c>
+      <c r="C376" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D376" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem The Bowl</t>
+        </is>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>44843.04011321759</v>
+      </c>
+      <c r="C377" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D377" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="inlineStr">
+        <is>
+          <t>Acıbadem Veganista</t>
+        </is>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>44843.04018099537</v>
+      </c>
+      <c r="C378" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D378" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>44843.04024497685</v>
+      </c>
+      <c r="C379" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D379" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>44843.04031466435</v>
+      </c>
+      <c r="C380" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D380" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>44843.04038197917</v>
+      </c>
+      <c r="C381" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D381" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>44843.04045106481</v>
+      </c>
+      <c r="C382" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D382" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="inlineStr">
+        <is>
+          <t>Ataşhir Çosa</t>
+        </is>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>44843.04052128473</v>
+      </c>
+      <c r="C383" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D383" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>44843.04059241898</v>
+      </c>
+      <c r="C384" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D384" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>44843.04065925926</v>
+      </c>
+      <c r="C385" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D385" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Doyuyo</t>
+        </is>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>44843.04072699074</v>
+      </c>
+      <c r="C386" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D386" s="0" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>44843.04079577547</v>
+      </c>
+      <c r="C387" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D387" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Fadelini</t>
+        </is>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>44843.04086320602</v>
+      </c>
+      <c r="C388" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D388" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>44843.04093238426</v>
+      </c>
+      <c r="C389" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D389" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>44843.04100114583</v>
+      </c>
+      <c r="C390" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D390" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>44843.04106991898</v>
+      </c>
+      <c r="C391" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D391" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>44843.04113962963</v>
+      </c>
+      <c r="C392" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D392" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>44843.04121071759</v>
+      </c>
+      <c r="C393" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D393" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Madritas</t>
+        </is>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>44843.04127703704</v>
+      </c>
+      <c r="C394" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D394" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B395" s="1" t="n">
+        <v>44843.04134708333</v>
+      </c>
+      <c r="C395" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D395" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>44843.04141603009</v>
+      </c>
+      <c r="C396" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D396" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Noody</t>
+        </is>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>44843.04148467592</v>
+      </c>
+      <c r="C397" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D397" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Red Haag</t>
+        </is>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>44843.04155229167</v>
+      </c>
+      <c r="C398" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D398" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>44843.0416209375</v>
+      </c>
+      <c r="C399" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D399" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Seez Beez</t>
+        </is>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>44843.04168976852</v>
+      </c>
+      <c r="C400" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D400" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>44843.04175962963</v>
+      </c>
+      <c r="C401" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D401" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Sushi Master</t>
+        </is>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>44843.04182846065</v>
+      </c>
+      <c r="C402" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D402" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir The Bowl</t>
+        </is>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>44843.04189815972</v>
+      </c>
+      <c r="C403" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D403" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="inlineStr">
+        <is>
+          <t>Ataşehir Veganista</t>
+        </is>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>44843.04196712963</v>
+      </c>
+      <c r="C404" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D404" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>44843.04204189814</v>
+      </c>
+      <c r="C405" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D405" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>44843.04211018518</v>
+      </c>
+      <c r="C406" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D406" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>44843.0421774537</v>
+      </c>
+      <c r="C407" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D407" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>44843.04224534722</v>
+      </c>
+      <c r="C408" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D408" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Çosa</t>
+        </is>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>44843.0423143287</v>
+      </c>
+      <c r="C409" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D409" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>44843.0423830787</v>
+      </c>
+      <c r="C410" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D410" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>44843.0424515162</v>
+      </c>
+      <c r="C411" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D411" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Doyuyo</t>
+        </is>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>44843.04251814815</v>
+      </c>
+      <c r="C412" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D412" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>44843.04258814815</v>
+      </c>
+      <c r="C413" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D413" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>44843.04265788195</v>
+      </c>
+      <c r="C414" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D414" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Fadelini</t>
+        </is>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>44843.04272659722</v>
+      </c>
+      <c r="C415" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D415" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>44843.04279984954</v>
+      </c>
+      <c r="C416" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D416" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>44843.04287116898</v>
+      </c>
+      <c r="C417" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D417" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>44843.04294013889</v>
+      </c>
+      <c r="C418" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D418" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>44843.04301006944</v>
+      </c>
+      <c r="C419" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D419" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>44843.04307866898</v>
+      </c>
+      <c r="C420" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D420" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>44843.04314688657</v>
+      </c>
+      <c r="C421" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D421" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Madritas</t>
+        </is>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>44843.0432162963</v>
+      </c>
+      <c r="C422" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D422" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>44843.04328482639</v>
+      </c>
+      <c r="C423" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D423" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>44843.0433574074</v>
+      </c>
+      <c r="C424" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D424" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Noody</t>
+        </is>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>44843.04342721065</v>
+      </c>
+      <c r="C425" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D425" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Red Haag</t>
+        </is>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>44843.04349601852</v>
+      </c>
+      <c r="C426" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D426" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>44843.04356371528</v>
+      </c>
+      <c r="C427" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D427" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>44843.0436346875</v>
+      </c>
+      <c r="C428" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D428" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Sushi Master</t>
+        </is>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>44843.04370210648</v>
+      </c>
+      <c r="C429" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D429" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>44843.04377052083</v>
+      </c>
+      <c r="C430" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D430" s="0" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı The Bowl</t>
+        </is>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>44843.0438384838</v>
+      </c>
+      <c r="C431" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D431" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="inlineStr">
+        <is>
+          <t>Kozyatağı Veganista</t>
+        </is>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>44843.04390849537</v>
+      </c>
+      <c r="C432" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D432" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="0" t="inlineStr">
+        <is>
+          <t>FSM Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>44843.04397665509</v>
+      </c>
+      <c r="C433" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D433" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="0" t="inlineStr">
+        <is>
+          <t>FSM Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>44843.04404233796</v>
+      </c>
+      <c r="C434" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D434" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="0" t="inlineStr">
+        <is>
+          <t>FSM Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>44843.04410719907</v>
+      </c>
+      <c r="C435" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D435" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="0" t="inlineStr">
+        <is>
+          <t>FSM Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B436" s="1" t="n">
+        <v>44843.04417447917</v>
+      </c>
+      <c r="C436" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D436" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="0" t="inlineStr">
+        <is>
+          <t>FSM Çosa</t>
+        </is>
+      </c>
+      <c r="B437" s="1" t="n">
+        <v>44843.04424515046</v>
+      </c>
+      <c r="C437" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D437" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="0" t="inlineStr">
+        <is>
+          <t>FSM Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>44843.04431381945</v>
+      </c>
+      <c r="C438" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D438" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="0" t="inlineStr">
+        <is>
+          <t>FSM Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>44843.04438068287</v>
+      </c>
+      <c r="C439" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D439" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="0" t="inlineStr">
+        <is>
+          <t>FSM El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>44843.04445349537</v>
+      </c>
+      <c r="C440" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D440" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="0" t="inlineStr">
+        <is>
+          <t>FSM Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>44843.04452459491</v>
+      </c>
+      <c r="C441" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D441" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="0" t="inlineStr">
+        <is>
+          <t>FSM Fadelini</t>
+        </is>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>44843.04459060185</v>
+      </c>
+      <c r="C442" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D442" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="0" t="inlineStr">
+        <is>
+          <t>FSM Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>44843.04465982639</v>
+      </c>
+      <c r="C443" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D443" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="0" t="inlineStr">
+        <is>
+          <t>FSM G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>44843.04472878472</v>
+      </c>
+      <c r="C444" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D444" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="0" t="inlineStr">
+        <is>
+          <t>FSM Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>44843.04479969908</v>
+      </c>
+      <c r="C445" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D445" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="0" t="inlineStr">
+        <is>
+          <t>FSM Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>44843.04486822917</v>
+      </c>
+      <c r="C446" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D446" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="0" t="inlineStr">
+        <is>
+          <t>FSM Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>44843.04493694445</v>
+      </c>
+      <c r="C447" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D447" s="0" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="0" t="inlineStr">
+        <is>
+          <t>FSM Madritas</t>
+        </is>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>44843.04500339121</v>
+      </c>
+      <c r="C448" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D448" s="0" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="0" t="inlineStr">
+        <is>
+          <t>FSM Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B449" s="1" t="n">
+        <v>44843.04507107639</v>
+      </c>
+      <c r="C449" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D449" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="0" t="inlineStr">
+        <is>
+          <t>FSM Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>44843.0451434838</v>
+      </c>
+      <c r="C450" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D450" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="0" t="inlineStr">
+        <is>
+          <t>FSM Noody</t>
+        </is>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>44843.04521217592</v>
+      </c>
+      <c r="C451" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D451" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="0" t="inlineStr">
+        <is>
+          <t>FSM Red Haag</t>
+        </is>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>44843.04528092593</v>
+      </c>
+      <c r="C452" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D452" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="0" t="inlineStr">
+        <is>
+          <t>FSM Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>44843.04534928241</v>
+      </c>
+      <c r="C453" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D453" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="0" t="inlineStr">
+        <is>
+          <t>FSM Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>44843.04542016204</v>
+      </c>
+      <c r="C454" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D454" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="0" t="inlineStr">
+        <is>
+          <t>FSM Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>44843.04549662037</v>
+      </c>
+      <c r="C455" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D455" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="0" t="inlineStr">
+        <is>
+          <t>FSM The Bowl</t>
+        </is>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>44843.04556526621</v>
+      </c>
+      <c r="C456" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D456" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="0" t="inlineStr">
+        <is>
+          <t>FSM Veganista</t>
+        </is>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>44843.04563414352</v>
+      </c>
+      <c r="C457" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D457" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>44843.0457010301</v>
+      </c>
+      <c r="C458" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D458" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>44843.04576777778</v>
+      </c>
+      <c r="C459" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D459" s="0" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B460" s="1" t="n">
+        <v>44843.04583372685</v>
+      </c>
+      <c r="C460" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D460" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B461" s="1" t="n">
+        <v>44843.04590192129</v>
+      </c>
+      <c r="C461" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D461" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Çosa</t>
+        </is>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>44843.04596954861</v>
+      </c>
+      <c r="C462" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D462" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>44843.04604407407</v>
+      </c>
+      <c r="C463" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D463" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>44843.04610972222</v>
+      </c>
+      <c r="C464" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D464" s="0" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="0" t="inlineStr">
+        <is>
+          <t>Maslak El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B465" s="1" t="n">
+        <v>44843.04617675926</v>
+      </c>
+      <c r="C465" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D465" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Etişler Köfte</t>
+        </is>
+      </c>
+      <c r="B466" s="1" t="n">
+        <v>44843.04624313657</v>
+      </c>
+      <c r="C466" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D466" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Fadelini</t>
+        </is>
+      </c>
+      <c r="B467" s="1" t="n">
+        <v>44843.04630910879</v>
+      </c>
+      <c r="C467" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D467" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B468" s="1" t="n">
+        <v>44843.04637792824</v>
+      </c>
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D468" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="0" t="inlineStr">
+        <is>
+          <t>Maslak G&amp;G Burger</t>
+        </is>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>44843.04644815972</v>
+      </c>
+      <c r="C469" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D469" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B470" s="1" t="n">
+        <v>44843.04651694444</v>
+      </c>
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D470" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>44843.04658453703</v>
+      </c>
+      <c r="C471" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D471" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Kale Arkası Mutfak</t>
+        </is>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>44843.04665197917</v>
+      </c>
+      <c r="C472" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D472" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>44843.04672186343</v>
+      </c>
+      <c r="C473" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D473" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Madritas</t>
+        </is>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>44843.04678952546</v>
+      </c>
+      <c r="C474" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D474" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>44843.04685892361</v>
+      </c>
+      <c r="C475" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D475" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>44843.04692803241</v>
+      </c>
+      <c r="C476" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D476" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Noody</t>
+        </is>
+      </c>
+      <c r="B477" s="1" t="n">
+        <v>44843.04699575232</v>
+      </c>
+      <c r="C477" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D477" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Red Haag</t>
+        </is>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>44843.04706337963</v>
+      </c>
+      <c r="C478" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D478" s="0" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>44843.04714746528</v>
+      </c>
+      <c r="C479" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D479" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>44843.04721497685</v>
+      </c>
+      <c r="C480" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D480" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Sushi Master</t>
+        </is>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>44843.04728378472</v>
+      </c>
+      <c r="C481" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D481" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Tabur Köfte</t>
+        </is>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>44843.04735133102</v>
+      </c>
+      <c r="C482" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D482" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="0" t="inlineStr">
+        <is>
+          <t>Maslak The Bowl</t>
+        </is>
+      </c>
+      <c r="B483" s="1" t="n">
+        <v>44843.04742125</v>
+      </c>
+      <c r="C483" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D483" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="0" t="inlineStr">
+        <is>
+          <t>Maslak Veganista</t>
+        </is>
+      </c>
+      <c r="B484" s="1" t="n">
+        <v>44843.04749241898</v>
+      </c>
+      <c r="C484" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D484" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B485" s="1" t="n">
+        <v>44843.04755918981</v>
+      </c>
+      <c r="C485" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D485" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B486" s="1" t="n">
+        <v>44843.04763454861</v>
+      </c>
+      <c r="C486" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D486" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B487" s="1" t="n">
+        <v>44843.04770320602</v>
+      </c>
+      <c r="C487" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D487" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Çosa</t>
+        </is>
+      </c>
+      <c r="B488" s="1" t="n">
+        <v>44843.04777229167</v>
+      </c>
+      <c r="C488" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D488" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="0" t="inlineStr">
+        <is>
+          <t>İzmir El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B489" s="1" t="n">
+        <v>44843.04783844907</v>
+      </c>
+      <c r="C489" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D489" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Fadelini</t>
+        </is>
+      </c>
+      <c r="B490" s="1" t="n">
+        <v>44843.04791307871</v>
+      </c>
+      <c r="C490" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D490" s="0" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Fun For Fit</t>
+        </is>
+      </c>
+      <c r="B491" s="1" t="n">
+        <v>44843.04797950231</v>
+      </c>
+      <c r="C491" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D491" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Gurra Tavuk</t>
+        </is>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>44843.04804888889</v>
+      </c>
+      <c r="C492" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D492" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Jay Jay Fries</t>
+        </is>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>44843.048116875</v>
+      </c>
+      <c r="C493" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D493" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Kengeres Çiğ Köfte</t>
+        </is>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>44843.04820340278</v>
+      </c>
+      <c r="C494" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D494" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Mztps Meze</t>
+        </is>
+      </c>
+      <c r="B495" s="1" t="n">
+        <v>44843.04827916667</v>
+      </c>
+      <c r="C495" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D495" s="0" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Nane Mantı</t>
+        </is>
+      </c>
+      <c r="B496" s="1" t="n">
+        <v>44843.04834690972</v>
+      </c>
+      <c r="C496" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D496" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Noody</t>
+        </is>
+      </c>
+      <c r="B497" s="1" t="n">
+        <v>44843.04841435186</v>
+      </c>
+      <c r="C497" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D497" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Red Haag</t>
+        </is>
+      </c>
+      <c r="B498" s="1" t="n">
+        <v>44843.04848123842</v>
+      </c>
+      <c r="C498" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D498" s="0" t="inlineStr">
+        <is>
+          <t>3.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Rylee's Ranch Salad</t>
+        </is>
+      </c>
+      <c r="B499" s="1" t="n">
+        <v>44843.04854938657</v>
+      </c>
+      <c r="C499" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D499" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Seez Beez</t>
+        </is>
+      </c>
+      <c r="B500" s="1" t="n">
+        <v>44843.0486169213</v>
+      </c>
+      <c r="C500" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D500" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Senor Torreon</t>
+        </is>
+      </c>
+      <c r="B501" s="1" t="n">
+        <v>44843.04868462963</v>
+      </c>
+      <c r="C501" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D501" s="0" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="0" t="inlineStr">
+        <is>
+          <t>İzmir The Bowl</t>
+        </is>
+      </c>
+      <c r="B502" s="1" t="n">
+        <v>44843.0487625926</v>
+      </c>
+      <c r="C502" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D502" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="0" t="inlineStr">
+        <is>
+          <t>İzmir Veganista</t>
+        </is>
+      </c>
+      <c r="B503" s="1" t="n">
+        <v>44843.0488303588</v>
+      </c>
+      <c r="C503" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D503" s="0" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B504" s="1" t="n">
+        <v>44843.04889663649</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B505" s="1" t="n">
+        <v>44843.0489639693</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>44843.04903370281</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Acıbadem Caesar Salad By</t>
+        </is>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>44843.04910470795</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Acıbadem Çosa</t>
+        </is>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>44843.04917422673</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Acıbadem Detroit Bad Boys Pizza</t>
+        </is>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>44843.04924564865</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Acıbadem Dlycious Dyssert</t>
+        </is>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>44843.04931850964</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Acıbadem Doyuyo</t>
+        </is>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>44843.04938510858</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Acıbadem El Pollo Lasso</t>
+        </is>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>44843.04944940782</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>4.3</t>
         </is>
       </c>
     </row>

--- a/Sheet.xlsx
+++ b/Sheet.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D512"/>
+  <dimension ref="A1:D515"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -10511,180 +10511,240 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr">
+      <c r="A504" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Alle Bowls</t>
         </is>
       </c>
       <c r="B504" s="1" t="n">
-        <v>44843.04889663649</v>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
+        <v>44843.04889663195</v>
+      </c>
+      <c r="C504" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D504" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
+      <c r="A505" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Arianas Cheesecake</t>
         </is>
       </c>
       <c r="B505" s="1" t="n">
-        <v>44843.0489639693</v>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr">
+        <v>44843.04896396991</v>
+      </c>
+      <c r="C505" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D505" s="0" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
+      <c r="A506" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Big Bold Quick</t>
         </is>
       </c>
       <c r="B506" s="1" t="n">
-        <v>44843.04903370281</v>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr">
+        <v>44843.0490337037</v>
+      </c>
+      <c r="C506" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D506" s="0" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
+      <c r="A507" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Caesar Salad By</t>
         </is>
       </c>
       <c r="B507" s="1" t="n">
-        <v>44843.04910470795</v>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr">
+        <v>44843.04910471065</v>
+      </c>
+      <c r="C507" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D507" s="0" t="inlineStr">
         <is>
           <t>4.6</t>
         </is>
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
+      <c r="A508" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Çosa</t>
         </is>
       </c>
       <c r="B508" s="1" t="n">
-        <v>44843.04917422673</v>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D508" t="inlineStr">
+        <v>44843.04917422454</v>
+      </c>
+      <c r="C508" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D508" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
+      <c r="A509" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Detroit Bad Boys Pizza</t>
         </is>
       </c>
       <c r="B509" s="1" t="n">
-        <v>44843.04924564865</v>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D509" t="inlineStr">
+        <v>44843.04924564815</v>
+      </c>
+      <c r="C509" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D509" s="0" t="inlineStr">
         <is>
           <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
+      <c r="A510" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Dlycious Dyssert</t>
         </is>
       </c>
       <c r="B510" s="1" t="n">
-        <v>44843.04931850964</v>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D510" t="inlineStr">
+        <v>44843.04931850694</v>
+      </c>
+      <c r="C510" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D510" s="0" t="inlineStr">
         <is>
           <t>3.8</t>
         </is>
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
+      <c r="A511" s="0" t="inlineStr">
         <is>
           <t>Acıbadem Doyuyo</t>
         </is>
       </c>
       <c r="B511" s="1" t="n">
-        <v>44843.04938510858</v>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>KAPALI</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
+        <v>44843.04938510417</v>
+      </c>
+      <c r="C511" s="0" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D511" s="0" t="inlineStr">
         <is>
           <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
+      <c r="A512" s="0" t="inlineStr">
         <is>
           <t>Acıbadem El Pollo Lasso</t>
         </is>
       </c>
       <c r="B512" s="1" t="n">
-        <v>44843.04944940782</v>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>AÇIK</t>
-        </is>
-      </c>
-      <c r="D512" t="inlineStr">
+        <v>44843.04944940972</v>
+      </c>
+      <c r="C512" s="0" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D512" s="0" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Acıbadem Alle Bowls</t>
+        </is>
+      </c>
+      <c r="B513" s="1" t="n">
+        <v>44843.05547593904</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Acıbadem Arianas Cheesecake</t>
+        </is>
+      </c>
+      <c r="B514" s="1" t="n">
+        <v>44843.05554274363</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>KAPALI</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Acıbadem Big Bold Quick</t>
+        </is>
+      </c>
+      <c r="B515" s="1" t="n">
+        <v>44843.05561228337</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>AÇIK</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
